--- a/biology/Botanique/Buddha_bowl/Buddha_bowl.xlsx
+++ b/biology/Botanique/Buddha_bowl/Buddha_bowl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un Buddha Bowl (bol de bouddha, en anglais) est une recette de cuisine végétarienne (ou végétalienne), inspirée de la cuisine bouddhique asiatique, à base de salade composée de nombreuses variantes de mélanges crus et cuits de céréales, légumineuses et légumes, variante végétarienne des Poke Bowl de la cuisine hawaïenne.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un Buddha Bowl est un repas végétarien, esthétique original et harmonieux, servi dans un bol ou une assiette à rebord haut, et préparé de façon équilibrée du point de vue alimentation saine et nutritionnelle.
 	Quelques exemples
-Il est généralement composé de petites portions de plusieurs aliments nutritifs (crus, cuits vapeur, bouillis, frits, ou grillés) servis froids, avec des céréales complètes telles que quinoa, semoule, pâte, riz brun, des protéines végétales telles que lentilles, fèves, pois, pois chiches, haricots, œuf ou tofu, et des légumes. Il est assaisonné d'épices et de sauces végétaliennes (vinaigre, huile, jus de citron, sauce soja, miel, vinaigre de riz, huile de noix...)[1],[2]. 
-Les vitamines et les fibres proviennent principalement des légumes, les graisses saines de l'huile, des graines et oléagineux, les glucides des gruaux, et les protéines des légumineuses[3],[4],[5]. 
+Il est généralement composé de petites portions de plusieurs aliments nutritifs (crus, cuits vapeur, bouillis, frits, ou grillés) servis froids, avec des céréales complètes telles que quinoa, semoule, pâte, riz brun, des protéines végétales telles que lentilles, fèves, pois, pois chiches, haricots, œuf ou tofu, et des légumes. Il est assaisonné d'épices et de sauces végétaliennes (vinaigre, huile, jus de citron, sauce soja, miel, vinaigre de riz, huile de noix...),. 
+Les vitamines et les fibres proviennent principalement des légumes, les graisses saines de l'huile, des graines et oléagineux, les glucides des gruaux, et les protéines des légumineuses. 
 </t>
         </is>
       </c>
